--- a/Web/db_data/transactions.xlsx
+++ b/Web/db_data/transactions.xlsx
@@ -107,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -125,7 +125,7 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -137,7 +137,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -145,6 +145,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,7 +404,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>1.0</v>
+        <v>101.0</v>
       </c>
       <c r="B2" s="7">
         <v>5.0</v>
@@ -424,13 +427,13 @@
       <c r="H2" s="10">
         <v>2.0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="6">
-        <v>2.0</v>
+        <v>102.0</v>
       </c>
       <c r="B3" s="7">
         <v>5.0</v>
@@ -453,13 +456,13 @@
       <c r="H3" s="10">
         <v>3.0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6">
-        <v>3.0</v>
+        <v>103.0</v>
       </c>
       <c r="B4" s="7">
         <v>5.0</v>
@@ -482,13 +485,13 @@
       <c r="H4" s="10">
         <v>4.0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="11">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11">
-        <v>4.0</v>
+      <c r="A5" s="6">
+        <v>104.0</v>
       </c>
       <c r="B5" s="12">
         <v>10.0</v>
@@ -511,13 +514,13 @@
       <c r="H5" s="13">
         <v>2.0</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11">
-        <v>5.0</v>
+      <c r="A6" s="6">
+        <v>105.0</v>
       </c>
       <c r="B6" s="12">
         <v>10.0</v>
@@ -540,13 +543,13 @@
       <c r="H6" s="13">
         <v>3.0</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="14">
         <v>2.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12">
-        <v>6.0</v>
+      <c r="A7" s="6">
+        <v>106.0</v>
       </c>
       <c r="B7" s="12">
         <v>10.0</v>
@@ -575,9 +578,9 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="B8" s="11">
+        <v>107.0</v>
+      </c>
+      <c r="B8" s="14">
         <v>20.0</v>
       </c>
       <c r="C8" s="8">
@@ -592,21 +595,21 @@
       <c r="F8" s="9">
         <v>778807.0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="14">
         <v>3.0</v>
       </c>
       <c r="H8" s="10">
         <v>2.0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="11">
         <v>2.4</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="B9" s="11">
+        <v>108.0</v>
+      </c>
+      <c r="B9" s="14">
         <v>20.0</v>
       </c>
       <c r="C9" s="8">
@@ -621,21 +624,21 @@
       <c r="F9" s="9">
         <v>778808.0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="14">
         <v>3.0</v>
       </c>
       <c r="H9" s="10">
         <v>3.0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="11">
         <v>2.65714285714286</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="B10" s="11">
+        <v>109.0</v>
+      </c>
+      <c r="B10" s="14">
         <v>10.0</v>
       </c>
       <c r="C10" s="8">
@@ -650,21 +653,21 @@
       <c r="F10" s="9">
         <v>778809.0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="14">
         <v>3.0</v>
       </c>
       <c r="H10" s="10">
         <v>4.0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="11">
         <v>2.91428571428572</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="6">
+        <v>110.0</v>
+      </c>
+      <c r="B11" s="14">
         <v>30.0</v>
       </c>
       <c r="C11" s="8">
@@ -679,21 +682,21 @@
       <c r="F11" s="9">
         <v>778810.0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="14">
         <v>4.0</v>
       </c>
       <c r="H11" s="13">
         <v>2.0</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="14">
         <v>3.17142857142857</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="A12" s="6">
+        <v>111.0</v>
+      </c>
+      <c r="B12" s="14">
         <v>10.0</v>
       </c>
       <c r="C12" s="8">
@@ -708,21 +711,21 @@
       <c r="F12" s="9">
         <v>778811.0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="14">
         <v>4.0</v>
       </c>
       <c r="H12" s="13">
         <v>3.0</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="14">
         <v>3.42857142857143</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="12">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="6">
+        <v>112.0</v>
+      </c>
+      <c r="B13" s="14">
         <v>20.0</v>
       </c>
       <c r="C13" s="8">
@@ -737,7 +740,7 @@
       <c r="F13" s="9">
         <v>778812.0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="14">
         <v>4.0</v>
       </c>
       <c r="H13" s="13">
@@ -749,9 +752,9 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="11">
+        <v>113.0</v>
+      </c>
+      <c r="B14" s="14">
         <v>20.0</v>
       </c>
       <c r="C14" s="8">
@@ -766,21 +769,21 @@
       <c r="F14" s="9">
         <v>778813.0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="14">
         <v>4.0</v>
       </c>
       <c r="H14" s="10">
         <v>3.0</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="14">
         <v>4.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="11">
+        <v>114.0</v>
+      </c>
+      <c r="B15" s="14">
         <v>10.0</v>
       </c>
       <c r="C15" s="8">
@@ -795,13 +798,13 @@
       <c r="F15" s="9">
         <v>778801.0</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="14">
         <v>4.0</v>
       </c>
       <c r="H15" s="10">
         <v>4.0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="14">
         <v>4.0</v>
       </c>
     </row>

--- a/Web/db_data/transactions.xlsx
+++ b/Web/db_data/transactions.xlsx
@@ -33,7 +33,7 @@
     <t>operation</t>
   </si>
   <si>
-    <t>article</t>
+    <t>article_lio_id</t>
   </si>
   <si>
     <t>attribute_cost_to</t>
@@ -42,7 +42,7 @@
     <t>by_user</t>
   </si>
   <si>
-    <t>storage</t>
+    <t>storage_id</t>
   </si>
   <si>
     <t>output</t>
@@ -368,7 +368,7 @@
     <col customWidth="1" min="1" max="2" width="10.56"/>
     <col customWidth="1" min="3" max="3" width="16.78"/>
     <col customWidth="1" min="4" max="5" width="10.56"/>
-    <col customWidth="1" min="6" max="6" width="8.44"/>
+    <col customWidth="1" min="6" max="6" width="9.67"/>
     <col customWidth="1" min="7" max="7" width="17.11"/>
     <col customWidth="1" min="8" max="26" width="10.56"/>
   </cols>

--- a/Web/db_data/transactions.xlsx
+++ b/Web/db_data/transactions.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">operation</t>
   </si>
   <si>
-    <t xml:space="preserve">article_lio_id</t>
+    <t xml:space="preserve">article</t>
   </si>
   <si>
     <t xml:space="preserve">attribute_cost_to</t>
@@ -227,15 +227,15 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.20703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="10.56"/>
   </cols>

--- a/Web/db_data/transactions.xlsx
+++ b/Web/db_data/transactions.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">operation</t>
   </si>
   <si>
-    <t xml:space="preserve">article</t>
+    <t xml:space="preserve">article_id</t>
   </si>
   <si>
     <t xml:space="preserve">attribute_cost_to</t>
@@ -227,7 +227,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Web/db_data/transactions.xlsx
+++ b/Web/db_data/transactions.xlsx
@@ -40,10 +40,10 @@
     <t xml:space="preserve">article_id</t>
   </si>
   <si>
-    <t xml:space="preserve">attribute_cost_to</t>
+    <t xml:space="preserve">attribute_cost_to_id</t>
   </si>
   <si>
-    <t xml:space="preserve">by_user</t>
+    <t xml:space="preserve">by_user_id</t>
   </si>
   <si>
     <t xml:space="preserve">storage_id</t>
@@ -227,7 +227,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -236,7 +236,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="10.56"/>
   </cols>
   <sheetData>
